--- a/StudentsN10.xlsx
+++ b/StudentsN10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Belgeler\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Masaüstü\IE400_Question3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFED6B-F523-4016-9BFF-20B834444D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81515C4-7D54-43BD-A703-EBA48E912FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{418A6F5F-B203-4AAF-B9FC-85A72E2F4CE0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{47312AF8-96DA-4EBC-9D7A-5EB49B55F0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -391,19 +391,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C86FA2-6CB4-4FDF-920E-C62B50051ED2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB45E9B-0C48-44AC-A417-A9C7B6934B79}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <v>225.43478260869566</v>
+      </c>
+      <c r="C1">
+        <v>189.60869565217391</v>
+      </c>
+      <c r="D1">
+        <v>201.21739130434781</v>
+      </c>
+      <c r="E1">
+        <v>200.65217391304347</v>
+      </c>
+      <c r="F1">
+        <v>210.13043478260869</v>
+      </c>
+      <c r="G1">
+        <v>183.13043478260869</v>
+      </c>
+      <c r="H1">
+        <v>203.2608695652174</v>
+      </c>
+      <c r="I1">
+        <v>190.2608695652174</v>
+      </c>
+      <c r="J1">
+        <v>186.13043478260869</v>
+      </c>
+      <c r="K1">
+        <v>170.39130434782609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>225.43478260869566</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>208.82608695652175</v>
+      </c>
+      <c r="D2">
+        <v>214.17391304347825</v>
+      </c>
+      <c r="E2">
+        <v>205.52173913043478</v>
+      </c>
+      <c r="F2">
+        <v>206.95652173913044</v>
+      </c>
+      <c r="G2">
+        <v>194.08695652173913</v>
+      </c>
+      <c r="H2">
+        <v>200.13043478260869</v>
+      </c>
+      <c r="I2">
+        <v>196.2608695652174</v>
+      </c>
+      <c r="J2">
+        <v>216.95652173913044</v>
+      </c>
+      <c r="K2">
+        <v>210.39130434782609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>189.60869565217391</v>
+      </c>
+      <c r="B3">
+        <v>208.82608695652175</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>206.2608695652174</v>
+      </c>
+      <c r="E3">
+        <v>186.65217391304347</v>
+      </c>
+      <c r="F3">
+        <v>174.82608695652175</v>
+      </c>
+      <c r="G3">
+        <v>187.39130434782609</v>
+      </c>
+      <c r="H3">
+        <v>216.47826086956522</v>
+      </c>
+      <c r="I3">
+        <v>197.39130434782609</v>
+      </c>
+      <c r="J3">
+        <v>214.86956521739131</v>
+      </c>
+      <c r="K3">
+        <v>184.17391304347825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>201.21739130434781</v>
+      </c>
+      <c r="B4">
+        <v>214.17391304347825</v>
+      </c>
+      <c r="C4">
+        <v>206.2608695652174</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>205.47826086956522</v>
+      </c>
+      <c r="F4">
+        <v>195.95652173913044</v>
+      </c>
+      <c r="G4">
+        <v>206.82608695652175</v>
+      </c>
+      <c r="H4">
+        <v>204.08695652173913</v>
+      </c>
+      <c r="I4">
+        <v>207.7391304347826</v>
+      </c>
+      <c r="J4">
+        <v>210.7391304347826</v>
+      </c>
+      <c r="K4">
+        <v>213.21739130434781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200.65217391304347</v>
+      </c>
+      <c r="B5">
+        <v>205.52173913043478</v>
+      </c>
+      <c r="C5">
+        <v>186.65217391304347</v>
+      </c>
+      <c r="D5">
+        <v>205.47826086956522</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>199.52173913043478</v>
+      </c>
+      <c r="G5">
+        <v>196.95652173913044</v>
+      </c>
+      <c r="H5">
+        <v>202.43478260869566</v>
+      </c>
+      <c r="I5">
+        <v>199.39130434782609</v>
+      </c>
+      <c r="J5">
+        <v>193.7391304347826</v>
+      </c>
+      <c r="K5">
+        <v>198.30434782608697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>210.13043478260869</v>
+      </c>
+      <c r="B6">
+        <v>206.95652173913044</v>
+      </c>
+      <c r="C6">
+        <v>174.82608695652175</v>
+      </c>
+      <c r="D6">
+        <v>195.95652173913044</v>
+      </c>
+      <c r="E6">
+        <v>199.52173913043478</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>197.7391304347826</v>
+      </c>
+      <c r="H6">
+        <v>190.65217391304347</v>
+      </c>
+      <c r="I6">
+        <v>202.56521739130434</v>
+      </c>
+      <c r="J6">
+        <v>194.69565217391303</v>
+      </c>
+      <c r="K6">
+        <v>201.08695652173913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>183.13043478260869</v>
+      </c>
+      <c r="B7">
+        <v>194.08695652173913</v>
+      </c>
+      <c r="C7">
+        <v>187.39130434782609</v>
+      </c>
+      <c r="D7">
+        <v>206.82608695652175</v>
+      </c>
+      <c r="E7">
+        <v>196.95652173913044</v>
+      </c>
+      <c r="F7">
+        <v>197.7391304347826</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>194.91304347826087</v>
+      </c>
+      <c r="I7">
+        <v>192.69565217391303</v>
+      </c>
+      <c r="J7">
+        <v>206.2608695652174</v>
+      </c>
+      <c r="K7">
+        <v>195.30434782608697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>203.2608695652174</v>
+      </c>
+      <c r="B8">
+        <v>200.13043478260869</v>
+      </c>
+      <c r="C8">
+        <v>216.47826086956522</v>
+      </c>
+      <c r="D8">
+        <v>204.08695652173913</v>
+      </c>
+      <c r="E8">
+        <v>202.43478260869566</v>
+      </c>
+      <c r="F8">
+        <v>190.65217391304347</v>
+      </c>
+      <c r="G8">
+        <v>194.91304347826087</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>196.13043478260869</v>
+      </c>
+      <c r="J8">
+        <v>201.17391304347825</v>
+      </c>
+      <c r="K8">
+        <v>213.52173913043478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>190.2608695652174</v>
+      </c>
+      <c r="B9">
+        <v>196.2608695652174</v>
+      </c>
+      <c r="C9">
+        <v>197.39130434782609</v>
+      </c>
+      <c r="D9">
+        <v>207.7391304347826</v>
+      </c>
+      <c r="E9">
+        <v>199.39130434782609</v>
+      </c>
+      <c r="F9">
+        <v>202.56521739130434</v>
+      </c>
+      <c r="G9">
+        <v>192.69565217391303</v>
+      </c>
+      <c r="H9">
+        <v>196.13043478260869</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>184.56521739130434</v>
+      </c>
+      <c r="K9">
+        <v>202.95652173913044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>186.13043478260869</v>
+      </c>
+      <c r="B10">
+        <v>216.95652173913044</v>
+      </c>
+      <c r="C10">
+        <v>214.86956521739131</v>
+      </c>
+      <c r="D10">
+        <v>210.7391304347826</v>
+      </c>
+      <c r="E10">
+        <v>193.7391304347826</v>
+      </c>
+      <c r="F10">
+        <v>194.69565217391303</v>
+      </c>
+      <c r="G10">
+        <v>206.2608695652174</v>
+      </c>
+      <c r="H10">
+        <v>201.17391304347825</v>
+      </c>
+      <c r="I10">
+        <v>184.56521739130434</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <v>212.69565217391303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>170.39130434782609</v>
+      </c>
+      <c r="B11">
+        <v>210.39130434782609</v>
+      </c>
+      <c r="C11">
+        <v>184.17391304347825</v>
+      </c>
+      <c r="D11">
+        <v>213.21739130434781</v>
+      </c>
+      <c r="E11">
+        <v>198.30434782608697</v>
+      </c>
+      <c r="F11">
+        <v>201.08695652173913</v>
+      </c>
+      <c r="G11">
+        <v>195.30434782608697</v>
+      </c>
+      <c r="H11">
+        <v>213.52173913043478</v>
+      </c>
+      <c r="I11">
+        <v>202.95652173913044</v>
+      </c>
+      <c r="J11">
+        <v>212.69565217391303</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23472A46-B603-4A39-ADDA-6AA5E005F1A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E809D34E-7874-44ED-907E-9E73BB6538B1}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -455,34 +843,34 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>196.39130434782609</v>
+        <v>204.56521739130434</v>
       </c>
       <c r="D2">
-        <v>206.13043478260869</v>
+        <v>199.17391304347825</v>
       </c>
       <c r="E2">
-        <v>209.60869565217391</v>
+        <v>195.39130434782609</v>
       </c>
       <c r="F2">
-        <v>206.95652173913044</v>
+        <v>196</v>
       </c>
       <c r="G2">
-        <v>195.52173913043478</v>
+        <v>180.86956521739131</v>
       </c>
       <c r="H2">
-        <v>217.13043478260869</v>
+        <v>186.39130434782609</v>
       </c>
       <c r="I2">
-        <v>202.21739130434781</v>
+        <v>171.34782608695653</v>
       </c>
       <c r="J2">
-        <v>198.30434782608697</v>
+        <v>204.04347826086956</v>
       </c>
       <c r="K2">
-        <v>205.60869565217391</v>
+        <v>213.13043478260869</v>
       </c>
       <c r="L2">
-        <v>218.95652173913044</v>
+        <v>211.69565217391303</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -490,37 +878,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>196.39130434782609</v>
+        <v>204.56521739130434</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>189.39130434782609</v>
+        <v>207.52173913043478</v>
       </c>
       <c r="E3">
-        <v>197.13043478260869</v>
+        <v>197.39130434782609</v>
       </c>
       <c r="F3">
-        <v>191.04347826086956</v>
+        <v>175.47826086956522</v>
       </c>
       <c r="G3">
-        <v>202.08695652173913</v>
+        <v>192.82608695652175</v>
       </c>
       <c r="H3">
-        <v>185</v>
+        <v>198.2608695652174</v>
       </c>
       <c r="I3">
-        <v>191.95652173913044</v>
+        <v>184.7391304347826</v>
       </c>
       <c r="J3">
-        <v>216.60869565217391</v>
+        <v>209.2608695652174</v>
       </c>
       <c r="K3">
-        <v>195.7391304347826</v>
+        <v>184.78260869565219</v>
       </c>
       <c r="L3">
-        <v>205</v>
+        <v>203.34782608695653</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -528,37 +916,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>206.13043478260869</v>
+        <v>199.17391304347825</v>
       </c>
       <c r="C4">
-        <v>189.39130434782609</v>
+        <v>207.52173913043478</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>194.43478260869566</v>
+        <v>184.7391304347826</v>
       </c>
       <c r="F4">
-        <v>206.08695652173913</v>
+        <v>221.43478260869566</v>
       </c>
       <c r="G4">
-        <v>213.34782608695653</v>
+        <v>192.82608695652175</v>
       </c>
       <c r="H4">
-        <v>197.60869565217391</v>
+        <v>214.82608695652175</v>
       </c>
       <c r="I4">
+        <v>198.7391304347826</v>
+      </c>
+      <c r="J4">
         <v>208.17391304347825</v>
       </c>
-      <c r="J4">
-        <v>196.56521739130434</v>
-      </c>
       <c r="K4">
-        <v>198.34782608695653</v>
+        <v>201.82608695652175</v>
       </c>
       <c r="L4">
-        <v>215.08695652173913</v>
+        <v>173.60869565217391</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -566,37 +954,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>209.60869565217391</v>
+        <v>195.39130434782609</v>
       </c>
       <c r="C5">
-        <v>197.13043478260869</v>
+        <v>197.39130434782609</v>
       </c>
       <c r="D5">
-        <v>194.43478260869566</v>
+        <v>184.7391304347826</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>194.39130434782609</v>
+        <v>191.7391304347826</v>
       </c>
       <c r="G5">
-        <v>219.17391304347825</v>
+        <v>206.86956521739131</v>
       </c>
       <c r="H5">
-        <v>195.86956521739131</v>
+        <v>202.65217391304347</v>
       </c>
       <c r="I5">
-        <v>212.21739130434781</v>
+        <v>192.08695652173913</v>
       </c>
       <c r="J5">
-        <v>189.7391304347826</v>
+        <v>190.21739130434781</v>
       </c>
       <c r="K5">
-        <v>199.69565217391303</v>
+        <v>217.17391304347825</v>
       </c>
       <c r="L5">
-        <v>190.2608695652174</v>
+        <v>202.78260869565219</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -604,37 +992,37 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>206.95652173913044</v>
+        <v>196</v>
       </c>
       <c r="C6">
-        <v>191.04347826086956</v>
+        <v>175.47826086956522</v>
       </c>
       <c r="D6">
-        <v>206.08695652173913</v>
+        <v>221.43478260869566</v>
       </c>
       <c r="E6">
-        <v>194.39130434782609</v>
+        <v>191.7391304347826</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>182.86956521739131</v>
+        <v>212.08695652173913</v>
       </c>
       <c r="H6">
-        <v>232.47826086956522</v>
+        <v>196.08695652173913</v>
       </c>
       <c r="I6">
-        <v>205.30434782608697</v>
+        <v>213.39130434782609</v>
       </c>
       <c r="J6">
-        <v>209.21739130434781</v>
+        <v>189.2608695652174</v>
       </c>
       <c r="K6">
-        <v>203.34782608695653</v>
+        <v>187.60869565217391</v>
       </c>
       <c r="L6">
-        <v>201.7391304347826</v>
+        <v>199.56521739130434</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -642,37 +1030,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>195.52173913043478</v>
+        <v>180.86956521739131</v>
       </c>
       <c r="C7">
-        <v>202.08695652173913</v>
+        <v>192.82608695652175</v>
       </c>
       <c r="D7">
-        <v>213.34782608695653</v>
+        <v>192.82608695652175</v>
       </c>
       <c r="E7">
-        <v>219.17391304347825</v>
+        <v>206.86956521739131</v>
       </c>
       <c r="F7">
-        <v>182.86956521739131</v>
+        <v>212.08695652173913</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7">
-        <v>190.39130434782609</v>
+        <v>193.95652173913044</v>
       </c>
       <c r="I7">
-        <v>208.7391304347826</v>
+        <v>175.7391304347826</v>
       </c>
       <c r="J7">
-        <v>199.60869565217391</v>
+        <v>202.47826086956522</v>
       </c>
       <c r="K7">
-        <v>197.60869565217391</v>
+        <v>199</v>
       </c>
       <c r="L7">
-        <v>192.91304347826087</v>
+        <v>188.39130434782609</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -680,37 +1068,37 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>217.13043478260869</v>
+        <v>186.39130434782609</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>198.2608695652174</v>
       </c>
       <c r="D8">
-        <v>197.60869565217391</v>
+        <v>214.82608695652175</v>
       </c>
       <c r="E8">
-        <v>195.86956521739131</v>
+        <v>202.65217391304347</v>
       </c>
       <c r="F8">
-        <v>232.47826086956522</v>
+        <v>196.08695652173913</v>
       </c>
       <c r="G8">
-        <v>190.39130434782609</v>
+        <v>193.95652173913044</v>
       </c>
       <c r="H8">
         <v>1000</v>
       </c>
       <c r="I8">
-        <v>225.39130434782609</v>
+        <v>206.82608695652175</v>
       </c>
       <c r="J8">
-        <v>182.52173913043478</v>
+        <v>181.69565217391303</v>
       </c>
       <c r="K8">
-        <v>197.7391304347826</v>
+        <v>192.39130434782609</v>
       </c>
       <c r="L8">
-        <v>187.78260869565219</v>
+        <v>200.08695652173913</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -718,37 +1106,37 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>202.21739130434781</v>
+        <v>171.34782608695653</v>
       </c>
       <c r="C9">
-        <v>191.95652173913044</v>
+        <v>184.7391304347826</v>
       </c>
       <c r="D9">
-        <v>208.17391304347825</v>
+        <v>198.7391304347826</v>
       </c>
       <c r="E9">
-        <v>212.21739130434781</v>
+        <v>192.08695652173913</v>
       </c>
       <c r="F9">
-        <v>205.30434782608697</v>
+        <v>213.39130434782609</v>
       </c>
       <c r="G9">
-        <v>208.7391304347826</v>
+        <v>175.7391304347826</v>
       </c>
       <c r="H9">
-        <v>225.39130434782609</v>
+        <v>206.82608695652175</v>
       </c>
       <c r="I9">
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>187.60869565217391</v>
+        <v>189.2608695652174</v>
       </c>
       <c r="K9">
-        <v>179.91304347826087</v>
+        <v>209.13043478260869</v>
       </c>
       <c r="L9">
-        <v>198.69565217391303</v>
+        <v>193.34782608695653</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -756,37 +1144,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>198.30434782608697</v>
+        <v>204.04347826086956</v>
       </c>
       <c r="C10">
-        <v>216.60869565217391</v>
+        <v>209.2608695652174</v>
       </c>
       <c r="D10">
-        <v>196.56521739130434</v>
+        <v>208.17391304347825</v>
       </c>
       <c r="E10">
-        <v>189.7391304347826</v>
+        <v>190.21739130434781</v>
       </c>
       <c r="F10">
-        <v>209.21739130434781</v>
+        <v>189.2608695652174</v>
       </c>
       <c r="G10">
-        <v>199.60869565217391</v>
+        <v>202.47826086956522</v>
       </c>
       <c r="H10">
-        <v>182.52173913043478</v>
+        <v>181.69565217391303</v>
       </c>
       <c r="I10">
-        <v>187.60869565217391</v>
+        <v>189.2608695652174</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
-        <v>195.78260869565219</v>
+        <v>219.86956521739131</v>
       </c>
       <c r="L10">
-        <v>211.08695652173913</v>
+        <v>225.2608695652174</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -794,37 +1182,37 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>205.60869565217391</v>
+        <v>213.13043478260869</v>
       </c>
       <c r="C11">
-        <v>195.7391304347826</v>
+        <v>184.78260869565219</v>
       </c>
       <c r="D11">
-        <v>198.34782608695653</v>
+        <v>201.82608695652175</v>
       </c>
       <c r="E11">
-        <v>199.69565217391303</v>
+        <v>217.17391304347825</v>
       </c>
       <c r="F11">
-        <v>203.34782608695653</v>
+        <v>187.60869565217391</v>
       </c>
       <c r="G11">
-        <v>197.60869565217391</v>
+        <v>199</v>
       </c>
       <c r="H11">
-        <v>197.7391304347826</v>
+        <v>192.39130434782609</v>
       </c>
       <c r="I11">
-        <v>179.91304347826087</v>
+        <v>209.13043478260869</v>
       </c>
       <c r="J11">
-        <v>195.78260869565219</v>
+        <v>219.86956521739131</v>
       </c>
       <c r="K11">
         <v>1000</v>
       </c>
       <c r="L11">
-        <v>190.95652173913044</v>
+        <v>209.17391304347825</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,34 +1220,34 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>218.95652173913044</v>
+        <v>211.69565217391303</v>
       </c>
       <c r="C12">
-        <v>205</v>
+        <v>203.34782608695653</v>
       </c>
       <c r="D12">
-        <v>215.08695652173913</v>
+        <v>173.60869565217391</v>
       </c>
       <c r="E12">
-        <v>190.2608695652174</v>
+        <v>202.78260869565219</v>
       </c>
       <c r="F12">
-        <v>201.7391304347826</v>
+        <v>199.56521739130434</v>
       </c>
       <c r="G12">
-        <v>192.91304347826087</v>
+        <v>188.39130434782609</v>
       </c>
       <c r="H12">
-        <v>187.78260869565219</v>
+        <v>200.08695652173913</v>
       </c>
       <c r="I12">
-        <v>198.69565217391303</v>
+        <v>193.34782608695653</v>
       </c>
       <c r="J12">
-        <v>211.08695652173913</v>
+        <v>225.2608695652174</v>
       </c>
       <c r="K12">
-        <v>190.95652173913044</v>
+        <v>209.17391304347825</v>
       </c>
       <c r="L12">
         <v>1000</v>
